--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="341">
   <si>
     <t>Item</t>
   </si>
@@ -1033,6 +1033,18 @@
   </si>
   <si>
     <t>Die anderen haben keine Chance gegen mich! &lt;Kai nimmt sich einen Zettel aus der Urne&gt;</t>
+  </si>
+  <si>
+    <t>s1_dlg_kai_intro_6</t>
+  </si>
+  <si>
+    <t>s1_dlg_andi_intro_3</t>
+  </si>
+  <si>
+    <t>Hey, was fällt dir ein!</t>
+  </si>
+  <si>
+    <t>Du brauchst den Aufgabenzettel doch gar nicht… ich entsorge das mal für dich.</t>
   </si>
 </sst>
 </file>
@@ -2187,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU100"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2352,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>169</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>172</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>174</v>
       </c>
@@ -2367,12 +2379,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>176</v>
       </c>
@@ -2383,12 +2395,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>179</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>180</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>182</v>
       </c>
@@ -2421,457 +2433,457 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D28" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="IU65" s="4" t="s">
+      <c r="IU67" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+    <row r="68" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="IU66" s="4"/>
-    </row>
-    <row r="67" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="IU68" s="4"/>
+    </row>
+    <row r="69" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="D71" s="1" t="s">
+    <row r="73" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:255" x14ac:dyDescent="0.25">
@@ -2882,245 +2894,267 @@
         <v>87</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="C83" s="1" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="C85" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>305</v>
       </c>
     </row>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rftpool22\IdeaProjects\ProjectIce\android\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="343">
   <si>
     <t>Item</t>
   </si>
@@ -1045,6 +1045,12 @@
   </si>
   <si>
     <t>Du brauchst den Aufgabenzettel doch gar nicht… ich entsorge das mal für dich.</t>
+  </si>
+  <si>
+    <t>s2_location_name</t>
+  </si>
+  <si>
+    <t>Kreuzung</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1108,6 +1114,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1476,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -2065,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2103,6 +2110,14 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="348">
   <si>
     <t>Item</t>
   </si>
@@ -585,9 +585,6 @@
     <t>&lt;wenn Zettel fertig, wird er gleich von Andi gelesen&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Zetteltext: Sehr geehrter Teilnehmer! Der Wettkampf besteht aus drei großen Prüfungen. Die erste besteht darin, den größten Fisch zu angeln. </t>
-  </si>
-  <si>
     <t>Akt 1, Szene 2:</t>
   </si>
   <si>
@@ -1051,6 +1048,24 @@
   </si>
   <si>
     <t>Kreuzung</t>
+  </si>
+  <si>
+    <t>s1_trolaf</t>
+  </si>
+  <si>
+    <t>Das ist Trolaf, einer von den durchgeknallten Wikingern. Sie wohnen am Dorfrand in einem umgebauten Schiff.</t>
+  </si>
+  <si>
+    <t>Urne</t>
+  </si>
+  <si>
+    <t>&lt;Zetteltext: Sehr geehrter Teilnehmer! Der Wettkampf besteht aus drei großen Prüfungen. Die erste besteht darin, den größten Fisch zu angeln. &gt;</t>
+  </si>
+  <si>
+    <t>s1_dlg_participants</t>
+  </si>
+  <si>
+    <t>Ich habe keine Zeit für dich, Kleiner. Mach' dich nützlich!</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1529,536 +1544,562 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="C4" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
+      <c r="C12" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>308</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>312</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="C54" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2072,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2090,10 +2131,10 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2106,18 +2147,10 @@
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2214,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IU103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2424,7 @@
         <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2423,7 +2456,7 @@
         <v>170</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -2455,24 +2488,24 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -2487,690 +2520,701 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D65" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IU67" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="IU68" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="IU68" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="69" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>242</v>
+      <c r="B69" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="IU69" s="4"/>
     </row>
     <row r="70" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="72" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="1" t="s">
+    </row>
+    <row r="74" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="D73" s="1" t="s">
+    <row r="75" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="74" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D82" s="1" t="s">
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
+      <c r="C84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="1" t="s">
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="1" t="s">
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="352">
   <si>
     <t>Item</t>
   </si>
@@ -60,9 +60,6 @@
     <t>s1_participants</t>
   </si>
   <si>
-    <t xml:space="preserve">So viel Konkurrenz… es wird nicht leicht werden, sie alle zu übertrumpfen. </t>
-  </si>
-  <si>
     <t>Teilnehmer</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>s4_washing_machine</t>
   </si>
   <si>
-    <t>Eine Waschmaschine… da ist ein Fisch drin…!</t>
-  </si>
-  <si>
     <t>Waschmaschine</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>s4_olaf</t>
   </si>
   <si>
-    <t>Ein großer, zurückgeblieben wirkender Wikinger</t>
-  </si>
-  <si>
     <t>Olaf</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
     <t>inv_worm</t>
   </si>
   <si>
-    <t>Der Wurm schmeckt bestimmt lecker… wenn man ein Fisch ist.</t>
-  </si>
-  <si>
     <t>Wurm</t>
   </si>
   <si>
@@ -402,9 +390,6 @@
     <t>s2_fishing_rod_theft</t>
   </si>
   <si>
-    <t>Vielleicht sollte ich Nathan einfach fragen…</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -573,9 +558,6 @@
     <t>s1_dlg_andi_intro_2</t>
   </si>
   <si>
-    <t>Du wirst schon sehen, Kai. Dieses Mal werde ich dich schlagen…</t>
-  </si>
-  <si>
     <t>&lt;Hauptcharaktere verlassen die Szene, Statisten bleiben&gt;</t>
   </si>
   <si>
@@ -603,9 +585,6 @@
     <t>s2_dlg_andi_monologue_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Aber… ich brauche noch eine Angel für die erste Prüfung. </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;Freie Bewegung&gt; </t>
   </si>
   <si>
@@ -813,15 +792,9 @@
     <t xml:space="preserve">Trolaf </t>
   </si>
   <si>
-    <t>AAAHHH!!  Ich will die dickbrüstige Blondine … und einen zumindest sehr bekannten Piratenschatz.</t>
-  </si>
-  <si>
     <t>s4_dlg_trolaf_beaten2</t>
   </si>
   <si>
-    <t>AUUUUU!!  Ich will immer noch die dickbrüstige Blondine! Mindestens Doppel-G! Meine Prinzessin…</t>
-  </si>
-  <si>
     <t>s4_dlg_trolaf_beaten3</t>
   </si>
   <si>
@@ -1020,9 +993,6 @@
     <t>Mein "perfekter" Bruder. Alles, was er anfängt, scheint zu klappen. Es ist wie verhext.</t>
   </si>
   <si>
-    <t>Was, du?? HAHAHAHA!!!!!  &lt;lacht aus vollem Hals, zerreißt Andis Zettel und wirft die Bruchstücke in seine Richtung&gt;</t>
-  </si>
-  <si>
     <t>Bitte hilf mir!</t>
   </si>
   <si>
@@ -1041,9 +1011,6 @@
     <t>Hey, was fällt dir ein!</t>
   </si>
   <si>
-    <t>Du brauchst den Aufgabenzettel doch gar nicht… ich entsorge das mal für dich.</t>
-  </si>
-  <si>
     <t>s2_location_name</t>
   </si>
   <si>
@@ -1066,6 +1033,51 @@
   </si>
   <si>
     <t>Ich habe keine Zeit für dich, Kleiner. Mach' dich nützlich!</t>
+  </si>
+  <si>
+    <t>s1_dlg_kai_torn_to_pieces</t>
+  </si>
+  <si>
+    <t>Was, du?? HAHAHAHA!!!!!  &lt;lacht aus vollem Hals und schnappt sich Andis Zettel&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Kai wirft Andis Aufgabenbeschreibung in den Brunnen&gt;</t>
+  </si>
+  <si>
+    <t>s2_worm</t>
+  </si>
+  <si>
+    <t>Er zappelt fröhlich in der Sonne.</t>
+  </si>
+  <si>
+    <t>Vielleicht sollte ich Nathan einfach fragen...</t>
+  </si>
+  <si>
+    <t>Du wirst schon sehen, Kai. Dieses Mal werde ich dich schlagen...</t>
+  </si>
+  <si>
+    <t>Du brauchst den Aufgabenzettel doch gar nicht... ich entsorge das mal für dich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aber... ich brauche noch eine Angel für die erste Prüfung. </t>
+  </si>
+  <si>
+    <t>AAAHHH!!  Ich will die dickbrüstige Blondine ... und einen zumindest sehr bekannten Piratenschatz.</t>
+  </si>
+  <si>
+    <t>AUUUUU!!  Ich will immer noch die dickbrüstige Blondine! Mindestens Doppel-G! Meine Prinzessin...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So viel Konkurrenz... es wird nicht leicht werden, sie alle zu übertrumpfen. </t>
+  </si>
+  <si>
+    <t>Eine Waschmaschine... da ist ein Fisch drin...!</t>
+  </si>
+  <si>
+    <t>Der Wurm schmeckt bestimmt lecker... wenn man ein Fisch ist.</t>
+  </si>
+  <si>
+    <t>Ein großer, zurückgeblieben wirkender Wikinger.</t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1544,24 +1556,24 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,527 +1592,538 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>306</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>311</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>340</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2116,41 +2139,42 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="119.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2175,66 +2199,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2247,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU103"/>
+  <dimension ref="A1:IU104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="D71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,10 +2289,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2276,47 +2300,47 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,896 +2349,907 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>183</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>194</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="B50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>216</v>
+      <c r="A51" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="65" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+    <row r="67" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IU68" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="IU69" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="IU69" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="70" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>241</v>
+      <c r="B70" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>333</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="IU70" s="4"/>
     </row>
     <row r="71" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="D74" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>266</v>
+      <c r="B84" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>268</v>
+      <c r="B85" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="C86" s="1" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -474,9 +474,6 @@
     <t>s1_dlg_rein_fall_intro_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Liebe Dorfgemeinde! Wie ihr sicher alle wisst, werde ich langsam zu alt, um euer Oberhaupt zu sein; daher soll ein Turnier ausgetragen werden, um meinen Nachfolger zu bestimmen.  </t>
-  </si>
-  <si>
     <t>s1_dlg_rein_fall_intro_2</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>Lasst mich vorbei! Wir machen auch mit!</t>
   </si>
   <si>
-    <t>&lt;Trolaf wird von seinen Kameraden blockiert, Kai bahnt sich schnell einen Weg durch die Menge und zieht einen Aufgabenzettel aus der Urne&gt;</t>
-  </si>
-  <si>
     <t>s1_dlg_kai_intro_1</t>
   </si>
   <si>
@@ -597,9 +591,6 @@
     <t>s2_dlg_nathan_greeting</t>
   </si>
   <si>
-    <t>Ich unterstütze die Teilnehmer bei ihren Prüfungen. Du siehst aus, als ob du Hilfe gebrauchen könntest!</t>
-  </si>
-  <si>
     <t>s2_dlg_andi_rules</t>
   </si>
   <si>
@@ -621,9 +612,6 @@
     <t>s2_dlg_nathan_fishing_rod</t>
   </si>
   <si>
-    <t>Ja, alle Teilnehmer, die keine eigene Angel haben, bekommen eine gestellt, mit freundlicher Unterstützung des Dorfältesten e.V.</t>
-  </si>
-  <si>
     <t>&lt;Angel zum Inventar hinzufügen&gt; inv_fishing_rod</t>
   </si>
   <si>
@@ -1026,9 +1014,6 @@
     <t>Urne</t>
   </si>
   <si>
-    <t>&lt;Zetteltext: Sehr geehrter Teilnehmer! Der Wettkampf besteht aus drei großen Prüfungen. Die erste besteht darin, den größten Fisch zu angeln. &gt;</t>
-  </si>
-  <si>
     <t>s1_dlg_participants</t>
   </si>
   <si>
@@ -1078,6 +1063,27 @@
   </si>
   <si>
     <t>Ein großer, zurückgeblieben wirkender Wikinger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebe Dorfgemeinde! Wie ihr sicher alle wisst, werde ich langsam zu alt, 
+um euer Oberhaupt zu sein; daher soll ein Turnier ausgetragen werden, 
+um meinen Nachfolger zu bestimmen.  </t>
+  </si>
+  <si>
+    <t>&lt;Trolaf wird von seinen Kameraden blockiert, Kai bahnt sich schnell einen Weg durch die 
+Menge und zieht einen Aufgabenzettel aus der Urne&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Zetteltext: Sehr geehrter Teilnehmer! Der Wettkampf besteht aus drei großen Prüfungen. 
+Die erste besteht darin, den größten Fisch zu angeln. &gt;</t>
+  </si>
+  <si>
+    <t>Ich unterstütze die Teilnehmer bei ihren Prüfungen. 
+Du siehst aus, als ob du Hilfe gebrauchen könntest!</t>
+  </si>
+  <si>
+    <t>Ja, alle Teilnehmer, die keine eigene Angel haben, bekommen eine gestellt, 
+mit freundlicher Unterstützung des Dorfältesten e.V.</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1142,6 +1148,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1510,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1556,21 +1565,21 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>84</v>
@@ -1592,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1650,7 +1659,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,10 +1675,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>90</v>
@@ -1834,7 +1843,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>73</v>
@@ -1856,7 +1865,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>78</v>
@@ -1910,7 +1919,7 @@
         <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>90</v>
@@ -1929,13 +1938,13 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,88 +2015,88 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2139,7 +2148,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2155,10 +2164,10 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2166,15 +2175,15 @@
         <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2273,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU104"/>
   <sheetViews>
-    <sheetView topLeftCell="D71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="C22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,355 +2366,355 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>150</v>
+      <c r="D9" s="8" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>334</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>191</v>
+      <c r="D40" s="8" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>199</v>
+      <c r="D44" s="8" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,52 +2722,52 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,24 +2777,24 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,46 +2804,46 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:255" x14ac:dyDescent="0.25">
@@ -2850,7 +2859,7 @@
         <v>141</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:255" x14ac:dyDescent="0.25">
@@ -2860,201 +2869,201 @@
     </row>
     <row r="68" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="IU69" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="IU70" s="4"/>
     </row>
     <row r="71" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:255" x14ac:dyDescent="0.25">
       <c r="D75" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
@@ -3062,194 +3071,194 @@
         <v>141</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="354">
   <si>
     <t>Item</t>
   </si>
@@ -1084,6 +1084,12 @@
   <si>
     <t>Ja, alle Teilnehmer, die keine eigene Angel haben, bekommen eine gestellt, 
 mit freundlicher Unterstützung des Dorfältesten e.V.</t>
+  </si>
+  <si>
+    <t>s1_location_name</t>
+  </si>
+  <si>
+    <t>Dorfplatz</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,6 +2094,14 @@
       </c>
       <c r="C55" s="1" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2282,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU104"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="364">
   <si>
     <t>Item</t>
   </si>
@@ -1090,6 +1090,36 @@
   </si>
   <si>
     <t>Dorfplatz</t>
+  </si>
+  <si>
+    <t>general_save_blocked</t>
+  </si>
+  <si>
+    <t>Du kannst im Moment nicht speichern!</t>
+  </si>
+  <si>
+    <t>general_save_success</t>
+  </si>
+  <si>
+    <t>Speichern erfolgreich!</t>
+  </si>
+  <si>
+    <t>general_load_success</t>
+  </si>
+  <si>
+    <t>Laden erfolgreich!</t>
+  </si>
+  <si>
+    <t>general_load_blocked</t>
+  </si>
+  <si>
+    <t>Du kannst im Moment kein anderes Spiel laden!</t>
+  </si>
+  <si>
+    <t>general_load_nosave</t>
+  </si>
+  <si>
+    <t>Es ist kein Spielstand vorhanden!</t>
   </si>
 </sst>
 </file>
@@ -2159,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2198,6 +2228,46 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2296,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rftpool12\IdeaProjects\ProjectIce\android\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Downloads\projectice\projectice\android\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="984" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="984"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="432">
   <si>
     <t>Item</t>
   </si>
@@ -1315,6 +1315,21 @@
   <si>
     <t>Ich will nicht auf dem Sitz von Klara Platz nehmen. Eher auf ihrem Schoß... ist auch wärmer als der Eisklotz hier.</t>
   </si>
+  <si>
+    <t>s1_panorama_location_name</t>
+  </si>
+  <si>
+    <t>Dorf</t>
+  </si>
+  <si>
+    <t>Statue von Kai</t>
+  </si>
+  <si>
+    <t>s1_panorama_kai_statue</t>
+  </si>
+  <si>
+    <t>"Retter der Robbenbabies". Kai soll sie nur mit dem kleinen Finger gerettet haben… Naja wers glaubt…</t>
+  </si>
 </sst>
 </file>
 
@@ -1654,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK79"/>
+  <dimension ref="A1:AMK80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21335,6 +21350,15 @@
       <c r="AMJ26"/>
     </row>
     <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -42194,69 +42218,78 @@
       <c r="C72"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>142</v>
+      <c r="A73" t="s">
+        <v>427</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>144</v>
+      <c r="A74" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B74"/>
-      <c r="C74" s="3" t="s">
-        <v>145</v>
+      <c r="C74" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
       <c r="B75"/>
-      <c r="C75"/>
+      <c r="C75" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76"/>
+      <c r="A76" s="4"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42264,7 +42297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rftpool22\IdeaProjects\ProjectIce\android\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Downloads\projectice\projectice\android\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="984"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="16380" windowHeight="8190" tabRatio="984" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -1472,9 +1472,6 @@
     <t>s1_dlg_smithy</t>
   </si>
   <si>
-    <t>Was gibt's, Kleiner? Ich bin ziemlich beschäftigt. Wenn du was repariert haben willst, komm' später wieder.</t>
-  </si>
-  <si>
     <t>s1_dlg_oldlady</t>
   </si>
   <si>
@@ -1491,6 +1488,10 @@
   </si>
   <si>
     <t xml:space="preserve">"Retter der Robbenbabies". Kai soll sie nur mit dem kleinen Finger gerettet haben...  wer's glaubt... </t>
+  </si>
+  <si>
+    <t>Was gibt's, Kleiner? Ich bin ziemlich beschäftigt. 
+Wenn du was repariert haben willst, komm' später wieder.</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -16365,7 +16366,7 @@
         <v>386</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>393</v>
@@ -21516,7 +21517,7 @@
         <v>428</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>429</v>
@@ -54163,8 +54164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55570,7 +55571,7 @@
       <c r="D35" s="5"/>
       <c r="IU35"/>
     </row>
-    <row r="36" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:255" ht="30" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>478</v>
@@ -55579,33 +55580,33 @@
         <v>449</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="IU36"/>
     </row>
     <row r="37" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C37" t="s">
         <v>448</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="IU37"/>
     </row>
     <row r="38" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C38" t="s">
         <v>447</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="IU38"/>
     </row>

--- a/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
+++ b/android/assets/ProjectIce-Lines (Philipps Baustelle).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Downloads\projectice\projectice\android\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rftpool22\IdeaProjects\ProjectIce\android\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="16380" windowHeight="8190" tabRatio="984" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="16380" windowHeight="8190" tabRatio="984"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="490">
   <si>
     <t>Item</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>s1_player_igloo</t>
-  </si>
-  <si>
-    <t>Mein Zuhause, das ich mit Kai zusammen bewohne. Eines Tages ziehe ich aus und kann endlich machen, was ich will.</t>
   </si>
   <si>
     <t>Unser Iglu</t>
@@ -437,9 +434,6 @@
     <t>inv_note_shred_4</t>
   </si>
   <si>
-    <t>Ein zerknitterter Papierschnipsel.</t>
-  </si>
-  <si>
     <t>inv_note_shred_1_2</t>
   </si>
   <si>
@@ -498,9 +492,6 @@
   </si>
   <si>
     <t>s1_using_well</t>
-  </si>
-  <si>
-    <t>Junge, was ein Glück! Das Stück ist trocken, weil es genau in den Brunneneimer gefallen ist, der unten schwamm.</t>
   </si>
   <si>
     <t>s2_fishing_rod_theft</t>
@@ -1007,9 +998,6 @@
     <t>Ich will meine Frau zurück, du Barbar!</t>
   </si>
   <si>
-    <t>Dann musst du was für mich machen. Ich will: eine Corvette C6 in flaschengrün, einen legendären Piratenschatz und eine dickbrüstige Blondine.</t>
-  </si>
-  <si>
     <t>s4_dlg_trolaf_beaten1</t>
   </si>
   <si>
@@ -1020,9 +1008,6 @@
   </si>
   <si>
     <t>s4_dlg_trolaf_beaten2</t>
-  </si>
-  <si>
-    <t>AUUUUU!!  Ich will immer noch die dickbrüstige Blondine! Mindestens Doppel-G! Meine Prinzessin...</t>
   </si>
   <si>
     <t>s4_dlg_trolaf_beaten3</t>
@@ -1247,9 +1232,6 @@
     <t>Ein Stapel Holz zum Feuermachen.</t>
   </si>
   <si>
-    <t>Ein altersschwacher Ofen. Eines Tages wird das Ding noch explodieren und dann bin ich hoffentlich nicht in der Nähe.</t>
-  </si>
-  <si>
     <t>Das Abendessen für Familie Knall-auf-Fall. Ich glaube, Nathan hat die Robbe erlegt.</t>
   </si>
   <si>
@@ -1274,9 +1256,6 @@
     <t>s1_igloo_pinniped_theft</t>
   </si>
   <si>
-    <t>Wir hatten zwar in letzter Zeit nicht viel Glück beim Jagen, aber soo verzweifelt bin ich nun auch wieder nicht.</t>
-  </si>
-  <si>
     <t>s1_igloo_teapot_theft</t>
   </si>
   <si>
@@ -1295,9 +1274,6 @@
     <t>s1_igloo_seatchieftain_theft</t>
   </si>
   <si>
-    <t>Ich will nicht auf dem Sitz vom Häuptling Platz nehmen. Sowas mag er gar nicht und ich muss in meinem Dorf noch eine Weile leben.</t>
-  </si>
-  <si>
     <t>s1_igloo_oven_use</t>
   </si>
   <si>
@@ -1308,9 +1284,6 @@
   </si>
   <si>
     <t>Heizt du etwa die Öfen anderer Leute? Na also...</t>
-  </si>
-  <si>
-    <t>Ich will nicht auf dem Sitz von Klara Platz nehmen. Eher auf ihrem Schoß... ist auch wärmer als der Eisklotz hier.</t>
   </si>
   <si>
     <t>s1_panorama_location_name</t>
@@ -1332,9 +1305,6 @@
   </si>
   <si>
     <t>s1_panorama_kai_statue_use</t>
-  </si>
-  <si>
-    <t>Ein wenig Vandalismus wäre schon verlockend… aber leider wüsste er schnell, wer es gewesen ist. Außer mir lieben ihn ja alle.</t>
   </si>
   <si>
     <t>s1_panorama_dwarves</t>
@@ -1400,9 +1370,6 @@
     <t xml:space="preserve">Sie ist fast so alt wie Rein Fall. Aber nicht so weise wie er... himmelt meinen Bruder an. Tztz.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Unser Schmied freut sich immer, wenn er mal etwas anderes als Eis bearbeiten kann. Er stellt nämlich hauptsächlich Iglus und Eismöbel her. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Das Feuer knistert fröhlich vor sich hin. </t>
   </si>
   <si>
@@ -1416,9 +1383,6 @@
   </si>
   <si>
     <t>Das ist Klaras eigenes Iglu. Die Tochter des Häuptlings zu sein, hat offensichtlich Vorteile.</t>
-  </si>
-  <si>
-    <t>Diese Bruchbude ein Iglu zu nennen, würde den Erfinder von Iglus beleidigen. Es wird wohl nur durch guten Willen zusammengehalten.</t>
   </si>
   <si>
     <t>Diese Laterne ist unzweifelhaft die größte Leuchte in diesem Dorf.</t>
@@ -1451,13 +1415,7 @@
     <t>s1_panorama_lantern_take</t>
   </si>
   <si>
-    <t>Der Schmied wird mir die Löffel langziehen, wenn ich ihm seine einzige Lichtquelle schnappe. Wie soll er sonst in der Nacht arbeiten?</t>
-  </si>
-  <si>
     <t>s1_panorama_leather_boots_take</t>
-  </si>
-  <si>
-    <t>Die Schuhe sind kaputt! Aber vielleicht kann ich meinem Bruder einen Streich spielen, sobald sie repariert sind.</t>
   </si>
   <si>
     <t>s1_panorama_anvil_use</t>
@@ -1492,6 +1450,72 @@
   <si>
     <t>Was gibt's, Kleiner? Ich bin ziemlich beschäftigt. 
 Wenn du was repariert haben willst, komm' später wieder.</t>
+  </si>
+  <si>
+    <t>Ein wenig Vandalismus wäre schon verlockend... 
+aber leider wüsste er schnell, wer es gewesen ist. Außer mir lieben ihn ja alle.</t>
+  </si>
+  <si>
+    <t>Ich will nicht auf dem Sitz vom Häuptling Platz nehmen. 
+Sowas mag er gar nicht und ich muss in meinem Dorf noch eine Weile leben.</t>
+  </si>
+  <si>
+    <t>Ich will nicht auf dem Sitz von Klara Platz nehmen. 
+Eher auf ihrem Schoß... ist auch wärmer als der Eisklotz hier.</t>
+  </si>
+  <si>
+    <t>Junge, was ein Glück! Das Stück ist trocken, weil es genau
+in den Brunneneimer gefallen ist, der unten schwamm.</t>
+  </si>
+  <si>
+    <t>Wir hatten zwar in letzter Zeit nicht viel Glück beim Jagen, 
+aber soo verzweifelt bin ich nun auch wieder nicht.</t>
+  </si>
+  <si>
+    <t>Der Schmied wird mir die Löffel langziehen, wenn ich ihm seine einzige Lichtquelle schnappe.
+Wie soll er sonst in der Nacht arbeiten?</t>
+  </si>
+  <si>
+    <t>Die Schuhe sind kaputt! Aber vielleicht kann ich meinem Bruder
+einen Streich spielen, sobald sie repariert sind.</t>
+  </si>
+  <si>
+    <t>Ein altersschwacher Ofen. Eines Tages wird das Ding noch explodieren 
+und dann bin ich hoffentlich nicht in der Nähe.</t>
+  </si>
+  <si>
+    <t>Mein Zuhause, das ich mit Kai zusammen bewohne. 
+Eines Tages ziehe ich aus und kann endlich machen, was ich will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unser Schmied freut sich immer, wenn er mal etwas anderes als Eis bearbeiten kann. 
+Er stellt nämlich hauptsächlich Iglus und Eismöbel her. </t>
+  </si>
+  <si>
+    <t>Diese Bruchbude ein Iglu zu nennen, würde den Erfinder von Iglus beleidigen. 
+Es wird wohl nur durch guten Willen zusammengehalten.</t>
+  </si>
+  <si>
+    <t>Dann musst du was für mich machen. Ich will: eine Corvette C6 in flaschengrün, 
+einen legendären Piratenschatz und eine dickbrüstige Blondine.</t>
+  </si>
+  <si>
+    <t>AUUUUU!!  Ich will immer noch die dickbrüstige Blondine! Mindestens Doppel-G! Meine Prinzessin…</t>
+  </si>
+  <si>
+    <t>Ein Aufgabenzettel aus der Urne.</t>
+  </si>
+  <si>
+    <t>Aufgabenzettel</t>
+  </si>
+  <si>
+    <t>inv_fishing_rod_worm</t>
+  </si>
+  <si>
+    <t>Eine komplette Angelrute mit Köder. Petri heil!</t>
+  </si>
+  <si>
+    <t>Angel mit Köder</t>
   </si>
 </sst>
 </file>
@@ -1542,13 +1566,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1832,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK91"/>
+  <dimension ref="A1:AMK92"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1902,24 +1929,24 @@
     </row>
     <row r="6" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
@@ -5018,15 +5045,15 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -6052,13 +6079,13 @@
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -7084,13 +7111,13 @@
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -8116,13 +8143,13 @@
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -10171,13 +10198,13 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -11203,13 +11230,13 @@
     </row>
     <row r="17" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -12235,13 +12262,13 @@
     </row>
     <row r="18" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -13267,13 +13294,13 @@
     </row>
     <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -14299,13 +14326,13 @@
     </row>
     <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -15329,15 +15356,15 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>404</v>
+        <v>380</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -16363,13 +16390,13 @@
     </row>
     <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -17395,13 +17422,13 @@
     </row>
     <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -18427,13 +18454,13 @@
     </row>
     <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -19459,13 +19486,13 @@
     </row>
     <row r="25" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -21514,13 +21541,13 @@
     </row>
     <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -22546,13 +22573,13 @@
     </row>
     <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -23578,13 +23605,13 @@
     </row>
     <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -24610,13 +24637,13 @@
     </row>
     <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -25640,15 +25667,15 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -26674,13 +26701,13 @@
     </row>
     <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -27706,13 +27733,13 @@
     </row>
     <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -28738,13 +28765,13 @@
     </row>
     <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -29770,13 +29797,13 @@
     </row>
     <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -30800,15 +30827,15 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>461</v>
+        <v>432</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -31834,13 +31861,13 @@
     </row>
     <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -32866,13 +32893,13 @@
     </row>
     <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -33898,13 +33925,13 @@
     </row>
     <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -34930,13 +34957,13 @@
     </row>
     <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -35962,13 +35989,13 @@
     </row>
     <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -36994,13 +37021,13 @@
     </row>
     <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -38026,13 +38053,13 @@
     </row>
     <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -39058,13 +39085,13 @@
     </row>
     <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -40090,13 +40117,13 @@
     </row>
     <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -41122,13 +41149,13 @@
     </row>
     <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -42154,13 +42181,13 @@
     </row>
     <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -43186,13 +43213,13 @@
     </row>
     <row r="49" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -44218,13 +44245,13 @@
     </row>
     <row r="50" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -45250,13 +45277,13 @@
     </row>
     <row r="52" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -46282,13 +46309,13 @@
     </row>
     <row r="53" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -47314,13 +47341,13 @@
     </row>
     <row r="54" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -48346,13 +48373,13 @@
     </row>
     <row r="55" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -49378,13 +49405,13 @@
     </row>
     <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -50410,13 +50437,13 @@
     </row>
     <row r="57" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -51442,13 +51469,13 @@
     </row>
     <row r="59" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -52474,43 +52501,43 @@
     </row>
     <row r="60" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
@@ -52518,13 +52545,13 @@
     </row>
     <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
@@ -53555,260 +53582,271 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>109</v>
+        <v>487</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>111</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>139</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
+      <c r="A83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>426</v>
-      </c>
+      <c r="A84"/>
       <c r="B84"/>
-      <c r="C84" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="C84"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>142</v>
+      <c r="A85" t="s">
+        <v>417</v>
       </c>
       <c r="B85"/>
       <c r="C85" s="1" t="s">
-        <v>143</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>144</v>
+      <c r="A86" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B86"/>
-      <c r="C86" s="3" t="s">
-        <v>145</v>
+      <c r="C86" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
       <c r="B87"/>
-      <c r="C87"/>
+      <c r="C87" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88"/>
+      <c r="A88" s="4"/>
       <c r="B88"/>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -53822,7 +53860,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53834,147 +53872,147 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -53983,90 +54021,90 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -54092,66 +54130,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -54164,8 +54202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54180,10 +54218,10 @@
   <sheetData>
     <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -54191,25 +54229,25 @@
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -55235,25 +55273,25 @@
     <row r="4" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="IU5"/>
     </row>
@@ -55273,10 +55311,10 @@
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -55285,59 +55323,59 @@
     <row r="9" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="IU9"/>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="IU10"/>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="IU11"/>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="IU12"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="IU13"/>
     </row>
@@ -55346,20 +55384,20 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="IU14"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="IU15"/>
     </row>
@@ -55368,42 +55406,42 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="IU16"/>
     </row>
     <row r="17" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="IU17"/>
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="IU18"/>
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="IU19"/>
     </row>
@@ -55412,20 +55450,20 @@
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="IU20"/>
     </row>
     <row r="21" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="IU21"/>
     </row>
@@ -55438,13 +55476,13 @@
     <row r="23" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="IU23"/>
     </row>
@@ -55458,26 +55496,26 @@
     <row r="25" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="IU25"/>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="IU26"/>
     </row>
@@ -55486,46 +55524,46 @@
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="IU27"/>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="IU28"/>
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="IU29"/>
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="IU30"/>
     </row>
@@ -55534,7 +55572,7 @@
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="IU31"/>
     </row>
@@ -55543,7 +55581,7 @@
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="IU32"/>
     </row>
@@ -55552,7 +55590,7 @@
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="IU33"/>
     </row>
@@ -55564,7 +55602,7 @@
     </row>
     <row r="35" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -55574,39 +55612,39 @@
     <row r="36" spans="1:255" ht="30" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C36" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="IU36"/>
     </row>
     <row r="37" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C37" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="IU37"/>
     </row>
     <row r="38" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C38" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="IU38"/>
     </row>
@@ -55640,7 +55678,7 @@
     </row>
     <row r="43" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -55650,76 +55688,76 @@
     <row r="44" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="IU44"/>
     </row>
     <row r="45" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="IU45"/>
     </row>
     <row r="46" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="IU46"/>
     </row>
     <row r="47" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="IU47"/>
     </row>
     <row r="48" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="IU48"/>
     </row>
     <row r="49" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="IU49"/>
     </row>
@@ -55728,85 +55766,85 @@
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="IU50"/>
     </row>
     <row r="51" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="IU51"/>
     </row>
     <row r="52" spans="1:255" ht="30" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="IU52"/>
     </row>
     <row r="53" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="IU53"/>
     </row>
     <row r="54" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="IU54"/>
     </row>
     <row r="55" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="IU55"/>
     </row>
     <row r="56" spans="1:255" ht="30" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="IU56"/>
     </row>
@@ -55815,46 +55853,46 @@
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="IU57"/>
     </row>
     <row r="58" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="IU58"/>
     </row>
     <row r="59" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="IU59"/>
     </row>
     <row r="60" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="IU60"/>
     </row>
@@ -55874,7 +55912,7 @@
     </row>
     <row r="63" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -55884,26 +55922,26 @@
     <row r="64" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="IU64"/>
     </row>
     <row r="65" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="IU65"/>
     </row>
@@ -55917,26 +55955,26 @@
     <row r="67" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="IU67"/>
     </row>
     <row r="68" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="IU68"/>
     </row>
@@ -55950,26 +55988,26 @@
     <row r="70" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="IU70"/>
     </row>
     <row r="71" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="IU71"/>
     </row>
@@ -55983,52 +56021,52 @@
     <row r="73" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="IU73"/>
     </row>
     <row r="74" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="IU74"/>
     </row>
     <row r="75" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="IU75"/>
     </row>
     <row r="76" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="IU76"/>
     </row>
@@ -56042,13 +56080,13 @@
     <row r="78" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="IU78"/>
     </row>
@@ -56062,66 +56100,66 @@
     <row r="80" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="IU80"/>
     </row>
     <row r="81" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="IU81" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="IU82" s="3"/>
     </row>
     <row r="83" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:255" x14ac:dyDescent="0.25">
@@ -56133,13 +56171,13 @@
     <row r="86" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:255" x14ac:dyDescent="0.25">
@@ -56147,327 +56185,327 @@
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="94" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:255" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>324</v>
+      <c r="D94" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99"/>
       <c r="C99" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
